--- a/raw_data/Job_hunting_stats.xlsx
+++ b/raw_data/Job_hunting_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gruzd\Documents\git\job-hunt-stats\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0664091-151E-4794-A870-223B70DFD7E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D3E2F1-A0E5-4BFE-89E4-CA6277A590CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{10ADA8F7-9BB7-485C-A53F-4F57D42B19C8}"/>
   </bookViews>
@@ -63,21 +63,12 @@
     <t>Name company</t>
   </si>
   <si>
-    <t>Appliance date</t>
-  </si>
-  <si>
-    <t>Appliance day</t>
-  </si>
-  <si>
     <t>Response date</t>
   </si>
   <si>
     <t>Response day</t>
   </si>
   <si>
-    <t>Appliance way</t>
-  </si>
-  <si>
     <t>Job application</t>
   </si>
   <si>
@@ -102,9 +93,6 @@
     <t>Technical assignment</t>
   </si>
   <si>
-    <t>Appliance way comments</t>
-  </si>
-  <si>
     <t>Linkedin network</t>
   </si>
   <si>
@@ -141,9 +129,6 @@
     <t>DM to recrutier</t>
   </si>
   <si>
-    <t>Linkedin appliance</t>
-  </si>
-  <si>
     <t>3-5 years</t>
   </si>
   <si>
@@ -877,6 +862,21 @@
   </si>
   <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>Application date</t>
+  </si>
+  <si>
+    <t>Application day</t>
+  </si>
+  <si>
+    <t>Application way</t>
+  </si>
+  <si>
+    <t>Application way comments</t>
+  </si>
+  <si>
+    <t>Linkedin application</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1274,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8:G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1300,40 +1300,40 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
@@ -1342,194 +1342,194 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="O5" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1">
         <v>44160</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I6" s="1">
         <v>44172</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="S6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1">
         <v>44166</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I7" s="1">
         <v>44167</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="S7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1">
         <v>44167</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>273</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="S8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1">
         <v>44167</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I9" s="1">
         <v>44169</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E10" s="1">
         <v>44166</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I10" s="1">
         <v>44168</v>
       </c>
       <c r="J10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K10" s="1">
         <v>44180</v>
@@ -1545,161 +1545,161 @@
         <v>49896</v>
       </c>
       <c r="S10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1">
         <v>44171</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I11" s="1">
         <v>44172</v>
       </c>
       <c r="J11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="S11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1">
         <v>44172</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>273</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I12" s="1">
         <v>44181</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="S12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E13" s="1">
         <v>44172</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>273</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="S13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E14" s="1">
         <v>44172</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I14" s="1">
         <v>44202</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E15" s="1">
         <v>44174</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I15" s="1">
         <v>44183</v>
       </c>
       <c r="J15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K15" s="1">
         <v>44187</v>
@@ -1719,335 +1719,335 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E16" s="1">
         <v>44174</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E17" s="1">
         <v>44174</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I17" s="1">
         <v>44174</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E18" s="1">
         <v>44174</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I18" s="1">
         <v>44176</v>
       </c>
       <c r="J18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E19" s="1">
         <v>44174</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E20" s="1">
         <v>44176</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E21" s="1">
         <v>44179</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E22" s="1">
         <v>44179</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H22" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E23" s="1">
         <v>44179</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I23" s="1">
         <v>44180</v>
       </c>
       <c r="J23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E24" s="1">
         <v>44179</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E25" s="1">
         <v>44180</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G25" t="s">
-        <v>28</v>
+        <v>273</v>
       </c>
       <c r="H25" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E26" s="1">
         <v>44180</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H26" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E27" s="1">
         <v>44180</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H27" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I27" s="1">
         <v>44193</v>
       </c>
       <c r="J27" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K27" s="1">
         <v>44195</v>
@@ -2061,118 +2061,118 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E28" s="1">
         <v>44180</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G28" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H28" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E29" s="1">
         <v>44181</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G29" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H29" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E30" s="1">
         <v>44181</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G30" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I30" s="1">
         <v>44186</v>
       </c>
       <c r="J30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E31" s="1">
         <v>44181</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H31" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I31" s="1">
         <v>44200</v>
       </c>
       <c r="J31" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K31" s="1"/>
       <c r="N31" s="1">
@@ -2181,214 +2181,214 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E32" s="1">
         <v>44181</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G32" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I32" s="1">
         <v>44183</v>
       </c>
       <c r="J32" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E33" s="1">
         <v>44181</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G33" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I33" s="1">
         <v>44200</v>
       </c>
       <c r="J33" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E34" s="1">
         <v>44181</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G34" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H34" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I34" s="1">
         <v>44186</v>
       </c>
       <c r="J34" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E35" s="1">
         <v>44182</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H35" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E36" s="1">
         <v>44183</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G36" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H36" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I36" s="1">
         <v>44186</v>
       </c>
       <c r="J36" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E37" s="1">
         <v>44183</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G37" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H37" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E38" s="1">
         <v>44183</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G38" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H38" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I38" s="1">
         <v>44203</v>
       </c>
       <c r="J38" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K38" s="1">
         <v>44203</v>
@@ -2399,34 +2399,34 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E39" s="1">
         <v>44186</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H39" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I39" s="1">
         <v>44189</v>
       </c>
       <c r="J39" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K39" s="1">
         <v>44201</v>
@@ -2440,220 +2440,220 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D40" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E40" s="1">
         <v>44186</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>28</v>
+        <v>273</v>
       </c>
       <c r="H40" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I40" s="1">
         <v>44193</v>
       </c>
       <c r="J40" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E41" s="1">
         <v>44186</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H41" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I41" s="1">
         <v>44187</v>
       </c>
       <c r="J41" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E42" s="1">
         <v>44186</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H42" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I42" s="1">
         <v>44187</v>
       </c>
       <c r="J42" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D43" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E43" s="1">
         <v>44187</v>
       </c>
       <c r="F43" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G43" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H43" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I43" s="1">
         <v>44187</v>
       </c>
       <c r="J43" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D44" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E44" s="1">
         <v>44186</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H44" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I44" s="1">
         <v>44187</v>
       </c>
       <c r="J44" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C45" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D45" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E45" s="1">
         <v>44187</v>
       </c>
       <c r="F45" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G45" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H45" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C46" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D46" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E46" s="1">
         <v>44188</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H46" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I46" s="1">
         <v>44188</v>
       </c>
       <c r="J46" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K46" s="1">
         <v>44188</v>
@@ -2661,657 +2661,657 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D47" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E47" s="1">
         <v>44188</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G47" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H47" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I47" s="1">
         <v>44209</v>
       </c>
       <c r="J47" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C48" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D48" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E48" s="1">
         <v>44188</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G48" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H48" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B49" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C49" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D49" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E49" s="1">
         <v>44188</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G49" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H49" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B50" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C50" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D50" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E50" s="1">
         <v>44188</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G50" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H50" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B51" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D51" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E51" s="1">
         <v>44189</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H51" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C52" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D52" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E52" s="1">
         <v>44189</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H52" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B53" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C53" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E53" s="1">
         <v>44189</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H53" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B54" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C54" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E54" s="1">
         <v>44189</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H54" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B55" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C55" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E55" s="1">
         <v>44189</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H55" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B56" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C56" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D56" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E56" s="1">
         <v>44193</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H56" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I56" s="1">
         <v>44201</v>
       </c>
       <c r="J56" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D57" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E57" s="1">
         <v>44193</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H57" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D58" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E58" s="1">
         <v>44193</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H58" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I58" s="1">
         <v>44194</v>
       </c>
       <c r="J58" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C59" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D59" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E59" s="1">
         <v>44193</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H59" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C60" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D60" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E60" s="1">
         <v>44193</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H60" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I60" s="1">
         <v>44201</v>
       </c>
       <c r="J60" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C61" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D61" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E61" s="1">
         <v>44194</v>
       </c>
       <c r="F61" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G61" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H61" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I61" s="1">
         <v>44208</v>
       </c>
       <c r="J61" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B62" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C62" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E62" s="1">
         <v>44194</v>
       </c>
       <c r="F62" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G62" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H62" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I62" s="1">
         <v>44201</v>
       </c>
       <c r="J62" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D63" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E63" s="1">
         <v>44200</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H63" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I63" s="1">
         <v>44203</v>
       </c>
       <c r="J63" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B64" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C64" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D64" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E64" s="1">
         <v>44200</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H64" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I64" s="1">
         <v>44214</v>
       </c>
       <c r="J64" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D65" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E65" s="1">
         <v>44200</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G65" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H65" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B66" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C66" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D66" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E66" s="1">
         <v>44200</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H66" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I66" s="1">
         <v>44202</v>
       </c>
       <c r="J66" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B67" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C67" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D67" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E67" s="1">
         <v>44201</v>
       </c>
       <c r="F67" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G67" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H67" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B68" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C68" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D68" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E68" s="1">
         <v>44201</v>
       </c>
       <c r="F68" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G68" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H68" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I68" s="1">
         <v>44203</v>
       </c>
       <c r="J68" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B69" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C69" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D69" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E69" s="1">
         <v>44201</v>
       </c>
       <c r="F69" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G69" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H69" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I69" s="1">
         <v>44202</v>
       </c>
       <c r="J69" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K69" s="1">
         <v>44207</v>
@@ -3322,66 +3322,66 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B70" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C70" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D70" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E70" s="1">
         <v>44203</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H70" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I70" s="1">
         <v>44210</v>
       </c>
       <c r="J70" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B71" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C71" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D71" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E71" s="1">
         <v>44203</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H71" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I71" s="1">
         <v>44204</v>
       </c>
       <c r="J71" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K71" s="1">
         <v>44208</v>
@@ -3389,400 +3389,400 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B72" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C72" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D72" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E72" s="1">
         <v>44207</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H72" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I72" s="1">
         <v>44209</v>
       </c>
       <c r="J72" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B73" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C73" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D73" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E73" s="1">
         <v>44207</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G73" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H73" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B74" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C74" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D74" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E74" s="1">
         <v>44207</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G74" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H74" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I74" s="1">
         <v>44208</v>
       </c>
       <c r="J74" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B75" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C75" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D75" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E75" s="1">
         <v>44207</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H75" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I75" s="1">
         <v>44208</v>
       </c>
       <c r="J75" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B76" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C76" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D76" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E76" s="1">
         <v>44207</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H76" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I76" s="1">
         <v>44211</v>
       </c>
       <c r="J76" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B77" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C77" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D77" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E77" s="1">
         <v>44209</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G77" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H77" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I77" s="1">
         <v>44217</v>
       </c>
       <c r="J77" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B78" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C78" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D78" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E78" s="1">
         <v>44209</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G78" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H78" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I78" s="1">
         <v>44214</v>
       </c>
       <c r="J78" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B79" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C79" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D79" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E79" s="1">
         <v>44209</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G79" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H79" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B80" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C80" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D80" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E80" s="1">
         <v>44209</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G80" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H80" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I80" s="1">
         <v>44210</v>
       </c>
       <c r="J80" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B81" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C81" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D81" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E81" s="1">
         <v>44209</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G81" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H81" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B82" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C82" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D82" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E82" s="1">
         <v>44210</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H82" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I82" s="1">
         <v>44216</v>
       </c>
       <c r="J82" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B83" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C83" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D83" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E83" s="1">
         <v>44214</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G83" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H83" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I83" s="1">
         <v>44214</v>
       </c>
       <c r="J83" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B84" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C84" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D84" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E84" s="1">
         <v>44214</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G84" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H84" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I84" s="1">
         <v>44214</v>
       </c>
       <c r="J84" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K84" s="1">
         <v>44218</v>
@@ -3790,124 +3790,124 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B85" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D85" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E85" s="1">
         <v>44214</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G85" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H85" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B86" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C86" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D86" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E86" s="1">
         <v>44214</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>28</v>
+        <v>273</v>
       </c>
       <c r="H86" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I86" s="1">
         <v>44217</v>
       </c>
       <c r="J86" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B87" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C87" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D87" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E87" s="1">
         <v>44214</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H87" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I87" s="1">
         <v>44216</v>
       </c>
       <c r="J87" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B88" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C88" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D88" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E88" s="1">
         <v>44215</v>
       </c>
       <c r="F88" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G88" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H88" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I88" s="1">
         <v>44215</v>
       </c>
       <c r="J88" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K88" s="1">
         <v>44215</v>
@@ -3915,373 +3915,373 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B89" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C89" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D89" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E89" s="1">
         <v>44215</v>
       </c>
       <c r="F89" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G89" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H89" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B90" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C90" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D90" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E90" s="1">
         <v>44215</v>
       </c>
       <c r="F90" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G90" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H90" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B91" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C91" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D91" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E91" s="1">
         <v>44215</v>
       </c>
       <c r="F91" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G91" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H91" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I91" s="1">
         <v>44215</v>
       </c>
       <c r="J91" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B92" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C92" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D92" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E92" s="1">
         <v>44215</v>
       </c>
       <c r="F92" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G92" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H92" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I92" s="1">
         <v>44221</v>
       </c>
       <c r="J92" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B93" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C93" t="s">
+        <v>239</v>
+      </c>
+      <c r="D93" t="s">
         <v>244</v>
-      </c>
-      <c r="D93" t="s">
-        <v>249</v>
       </c>
       <c r="E93" s="1">
         <v>44216</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G93" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H93" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I93" s="1">
         <v>44218</v>
       </c>
       <c r="J93" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B94" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C94" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D94" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E94" s="1">
         <v>44216</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G94" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H94" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I94" s="1">
         <v>44217</v>
       </c>
       <c r="J94" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B95" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C95" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D95" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E95" s="1">
         <v>44216</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G95" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H95" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B96" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C96" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D96" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E96" s="1">
         <v>44216</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G96" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H96" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I96" s="1">
         <v>44222</v>
       </c>
       <c r="J96" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B97" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C97" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D97" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E97" s="1">
         <v>44216</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G97" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H97" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B98" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C98" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D98" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E98" s="1">
         <v>44216</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G98" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H98" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B99" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C99" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D99" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E99" s="1">
         <v>44216</v>
       </c>
       <c r="F99" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G99" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H99" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I99" s="1">
         <v>44224</v>
       </c>
       <c r="J99" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C100" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D100" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E100" s="1">
         <v>44216</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H100" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B101" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C101" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D101" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E101" s="1">
         <v>44217</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H101" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
